--- a/CHD/CHD_gene/recurrent_sv.xlsx
+++ b/CHD/CHD_gene/recurrent_sv.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaohuili3\Desktop\RA\seq_variations\BFB\BFB_data\CHD\CHD_gene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0DF799C3-C161-4C7D-A3B7-4A4E43449510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4333DFDC-CC7D-4670-89FA-B9B15D162BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recurrent_sv" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">recurrent_sv!$A$1:$J$232</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="270" uniqueCount="27">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="272" uniqueCount="28">
   <si>
     <t>Start_chr</t>
   </si>
@@ -107,12 +110,15 @@
   <si>
     <t>PLEKHB2</t>
   </si>
+  <si>
+    <t>ITPRID1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +270,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -631,7 +644,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -640,6 +653,7 @@
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1001,10 +1015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,7 +1060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>1.8364290840189101E-61</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>5.88543194105715E-51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
+    <row r="4" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1134,38 +1149,38 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80454441</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>80461952</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.2502708560000002</v>
-      </c>
-      <c r="G5" s="1">
-        <v>23.366013070000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>26.969696970000001</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7.0319630365520593E-36</v>
+      <c r="A5" s="3">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26001844</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>26002386</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>85.265438790000005</v>
+      </c>
+      <c r="G5" s="3">
+        <v>85.457516339999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>86.363636360000001</v>
+      </c>
+      <c r="I5">
+        <v>0.69222932588199904</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1195,7 +1210,7 @@
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1">
+    <row r="7" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1225,7 +1240,7 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1254,7 +1269,7 @@
         <v>1.4831483576663301E-21</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>6.5667514568765402E-21</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10">
         <v>15</v>
       </c>
@@ -1312,7 +1327,7 @@
         <v>2.9018409864444702E-20</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11">
         <v>22</v>
       </c>
@@ -1341,7 +1356,7 @@
         <v>9.5061366137383695E-19</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1371,38 +1386,38 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
+      <c r="A13" s="2">
+        <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>79667729</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>85155108</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
       </c>
       <c r="D13" s="2">
-        <v>79670580</v>
+        <v>85156196</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>18.959913329999999</v>
+        <v>59.91332611</v>
       </c>
       <c r="G13" s="2">
-        <v>33.496732029999997</v>
+        <v>65.032679740000006</v>
       </c>
       <c r="H13" s="2">
-        <v>40</v>
-      </c>
-      <c r="I13" s="4">
-        <v>4.2647601003557002E-14</v>
-      </c>
-      <c r="J13" t="s">
+        <v>66.666666669999998</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.5733336323396897E-2</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>7.4782590075256294E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>2.8307856322321901E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1491,37 +1506,37 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>37924183</v>
+        <v>70961199</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>37924723</v>
+        <v>70973894</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2">
-        <v>9.1007583969999999</v>
+        <v>52.112676059999998</v>
       </c>
       <c r="G17" s="2">
-        <v>24.346405229999998</v>
+        <v>57.679738559999997</v>
       </c>
       <c r="H17" s="2">
-        <v>24.242424239999998</v>
-      </c>
-      <c r="I17" s="4">
-        <v>5.0386384204862801E-12</v>
-      </c>
-      <c r="J17" t="s">
+        <v>57.575757580000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.100270514353938</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>6.0925954082011402E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1580,70 +1595,70 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1">
-      <c r="A20" s="6">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6">
-        <v>125501849</v>
-      </c>
-      <c r="C20" s="6">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6">
-        <v>125512533</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6">
-        <v>23.726977250000001</v>
-      </c>
-      <c r="G20" s="6">
-        <v>35.620915029999999</v>
-      </c>
-      <c r="H20" s="6">
-        <v>42.727272730000003</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9.4345863706786205E-11</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>87926012</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>87937548</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>60.238353199999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>58.660130719999998</v>
+      </c>
+      <c r="H20" s="2">
+        <v>56.969696970000001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.33086743036184402</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>28932749</v>
+        <v>95544969</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>28934786</v>
+        <v>95545592</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2">
-        <v>25.568797400000001</v>
+        <v>53.629469120000003</v>
       </c>
       <c r="G21" s="2">
-        <v>36.928104580000003</v>
+        <v>56.20915033</v>
       </c>
       <c r="H21" s="2">
-        <v>43.333333330000002</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2.5207204367684902E-9</v>
-      </c>
-      <c r="J21" t="s">
+        <v>56.060606059999998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.48611733588164702</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1673,70 +1688,70 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
-        <v>162827575</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>162829871</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2">
-        <v>22.101841820000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>34.313725490000003</v>
-      </c>
-      <c r="H23" s="2">
-        <v>38.18181818</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.91910397578243E-8</v>
+      <c r="A23" s="3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>12391927</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12393688</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>41.495124590000003</v>
+      </c>
+      <c r="G23" s="3">
+        <v>51.143790850000002</v>
+      </c>
+      <c r="H23" s="3">
+        <v>51.81818182</v>
+      </c>
+      <c r="I23">
+        <v>1.49219107496596E-3</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>28932544</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>28934952</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5.6338028170000003</v>
-      </c>
-      <c r="G24" s="2">
-        <v>15.522875819999999</v>
-      </c>
-      <c r="H24" s="2">
-        <v>15.75757576</v>
-      </c>
-      <c r="I24" s="4">
-        <v>2.0811610100633701E-8</v>
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>207119002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>207119851</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45.395449620000001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>52.777777780000001</v>
+      </c>
+      <c r="H24" s="3">
+        <v>49.090909089999997</v>
+      </c>
+      <c r="I24">
+        <v>0.27523629677450101</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1765,7 +1780,7 @@
         <v>2.2715112515144499E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1795,38 +1810,38 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1">
-        <v>29251032</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>29252080</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5.8504875409999997</v>
-      </c>
-      <c r="G27" s="1">
-        <v>15.8496732</v>
-      </c>
-      <c r="H27" s="1">
-        <v>15.454545449999999</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1.23423135951775E-7</v>
+      <c r="A27" s="3">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <v>40839777</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>40840871</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3">
+        <v>47.670639219999998</v>
+      </c>
+      <c r="G27" s="3">
+        <v>41.503267970000003</v>
+      </c>
+      <c r="H27" s="3">
+        <v>46.363636360000001</v>
+      </c>
+      <c r="I27">
+        <v>0.73091314090818005</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28">
         <v>17</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>4.8865190451389499E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1885,67 +1900,70 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
-        <v>131129003</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>131129733</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2.8169014080000001</v>
-      </c>
-      <c r="G30" s="1">
-        <v>10.13071895</v>
-      </c>
-      <c r="H30" s="1">
-        <v>9.3939393940000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.86818689621895E-6</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>26</v>
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28932749</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>28934786</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>25.568797400000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>36.928104580000003</v>
+      </c>
+      <c r="H30" s="2">
+        <v>43.333333330000002</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.5207204367684902E-9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>117862980</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>117863355</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>5.9588299019999997</v>
-      </c>
-      <c r="G31">
-        <v>12.09150327</v>
-      </c>
-      <c r="H31">
-        <v>14.545454550000001</v>
-      </c>
-      <c r="I31" s="4">
-        <v>1.9622153330913801E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="A31" s="6">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6">
+        <v>125501849</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <v>125512533</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="6">
+        <v>23.726977250000001</v>
+      </c>
+      <c r="G31" s="6">
+        <v>35.620915029999999</v>
+      </c>
+      <c r="H31" s="6">
+        <v>42.727272730000003</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9.4345863706786205E-11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32">
         <v>16</v>
       </c>
@@ -1976,67 +1994,64 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1">
       <c r="A33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>31547158</v>
+        <v>148174677</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>31552382</v>
+        <v>148175216</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>15.92632719</v>
+        <v>41.170097509999998</v>
       </c>
       <c r="G33">
-        <v>22.222222219999999</v>
+        <v>38.888888889999997</v>
       </c>
       <c r="H33">
-        <v>27.878787880000001</v>
-      </c>
-      <c r="I33" s="4">
-        <v>3.1377610892448701E-6</v>
+        <v>42.727272730000003</v>
+      </c>
+      <c r="I33">
+        <v>0.66898987082371297</v>
       </c>
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="1">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <v>105520479</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1">
-        <v>105521175</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="1">
-        <v>13.651137589999999</v>
-      </c>
-      <c r="G34" s="1">
-        <v>23.039215689999999</v>
-      </c>
-      <c r="H34" s="1">
-        <v>24.848484849999998</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4.1084565640308702E-6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>26648364</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>26649407</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>38.028169009999999</v>
+      </c>
+      <c r="G34">
+        <v>39.542483660000002</v>
+      </c>
+      <c r="H34">
+        <v>41.81818182</v>
+      </c>
+      <c r="I34">
+        <v>0.25195326922029199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>4.8115063923170503E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36">
         <v>15</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>2.2794186095761799E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2124,64 +2139,67 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="B38">
-        <v>127906521</v>
-      </c>
-      <c r="C38">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>127907286</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>10.40086674</v>
-      </c>
-      <c r="G38">
-        <v>16.339869279999998</v>
-      </c>
-      <c r="H38">
-        <v>19.39393939</v>
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2">
+        <v>79667729</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>79670580</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2">
+        <v>18.959913329999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>33.496732029999997</v>
+      </c>
+      <c r="H38" s="2">
+        <v>40</v>
       </c>
       <c r="I38" s="4">
-        <v>4.0415220888088302E-5</v>
+        <v>4.2647601003557002E-14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="2">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2">
-        <v>80015320</v>
-      </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2">
-        <v>80015952</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2">
-        <v>19.393282769999999</v>
-      </c>
-      <c r="G39" s="2">
-        <v>26.79738562</v>
-      </c>
-      <c r="H39" s="2">
-        <v>30.3030303</v>
-      </c>
-      <c r="I39" s="4">
-        <v>6.0349377242306601E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>124294183</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>124295338</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>29.360780070000001</v>
+      </c>
+      <c r="G39">
+        <v>38.725490200000003</v>
+      </c>
+      <c r="H39">
+        <v>38.787878790000001</v>
+      </c>
+      <c r="I39">
+        <v>2.02774324373905E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2210,7 +2228,7 @@
         <v>7.5552104088770302E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41">
         <v>13</v>
       </c>
@@ -2240,64 +2258,67 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
-        <v>7</v>
-      </c>
-      <c r="B42">
-        <v>102084258</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>102084759</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>7.8006500540000001</v>
-      </c>
-      <c r="G42">
-        <v>13.39869281</v>
-      </c>
-      <c r="H42">
-        <v>15.15151515</v>
-      </c>
-      <c r="I42">
-        <v>1.7140446652377499E-4</v>
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2">
+        <v>162827575</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>162829871</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2">
+        <v>22.101841820000001</v>
+      </c>
+      <c r="G42" s="2">
+        <v>34.313725490000003</v>
+      </c>
+      <c r="H42" s="2">
+        <v>38.18181818</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.91910397578243E-8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>46648665</v>
+        <v>71139014</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>62759566</v>
+        <v>71139975</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>4.0086673890000002</v>
+        <v>30.76923077</v>
       </c>
       <c r="G43">
-        <v>8.8235294119999992</v>
+        <v>30.718954249999999</v>
       </c>
       <c r="H43">
-        <v>9.6969696970000001</v>
+        <v>31.51515152</v>
       </c>
       <c r="I43">
-        <v>1.78733975105176E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.85544443379471002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44">
         <v>8</v>
       </c>
@@ -2327,36 +2348,38 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45">
-        <v>62277793</v>
-      </c>
-      <c r="C45">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>125589068</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>1.516793066</v>
-      </c>
-      <c r="G45">
-        <v>3.4313725490000002</v>
-      </c>
-      <c r="H45">
-        <v>5.4545454549999999</v>
-      </c>
-      <c r="I45">
-        <v>2.25579506288884E-4</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="A45" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2">
+        <v>80015320</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>80015952</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2">
+        <v>19.393282769999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>26.79738562</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30.3030303</v>
+      </c>
+      <c r="I45" s="4">
+        <v>6.0349377242306601E-5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2385,7 +2408,7 @@
         <v>2.3514195875184001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47">
         <v>22</v>
       </c>
@@ -2414,7 +2437,7 @@
         <v>2.63798443484443E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2443,7 +2466,7 @@
         <v>3.2738436156479699E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2472,7 +2495,7 @@
         <v>4.8283147510209701E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50">
         <v>12</v>
       </c>
@@ -2501,7 +2524,7 @@
         <v>7.6091915547036595E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2530,7 +2553,7 @@
         <v>8.8188901319774299E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2559,7 +2582,7 @@
         <v>1.0502573134936401E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53">
         <v>11</v>
       </c>
@@ -2588,39 +2611,39 @@
         <v>1.4476360543471799E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1">
-        <v>12391927</v>
-      </c>
-      <c r="C54" s="1">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1">
-        <v>12393688</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="1">
-        <v>41.495124590000003</v>
-      </c>
-      <c r="G54" s="1">
-        <v>51.143790850000002</v>
-      </c>
-      <c r="H54" s="1">
-        <v>51.81818182</v>
-      </c>
-      <c r="I54">
-        <v>1.49219107496596E-3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+    <row r="54" spans="1:10" ht="16.5">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>31547158</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>31552382</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>15.92632719</v>
+      </c>
+      <c r="G54">
+        <v>22.222222219999999</v>
+      </c>
+      <c r="H54">
+        <v>27.878787880000001</v>
+      </c>
+      <c r="I54" s="4">
+        <v>3.1377610892448701E-6</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2650,35 +2673,38 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>124294183</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>124295338</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56">
-        <v>29.360780070000001</v>
-      </c>
-      <c r="G56">
-        <v>38.725490200000003</v>
-      </c>
-      <c r="H56">
-        <v>38.787878790000001</v>
-      </c>
-      <c r="I56">
-        <v>2.02774324373905E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="A56" s="1">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1">
+        <v>80454441</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>80461952</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3.2502708560000002</v>
+      </c>
+      <c r="G56" s="1">
+        <v>23.366013070000001</v>
+      </c>
+      <c r="H56" s="1">
+        <v>26.969696970000001</v>
+      </c>
+      <c r="I56" s="4">
+        <v>7.0319630365520593E-36</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2709,34 +2735,34 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>80328939</v>
+        <v>224428264</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>80329427</v>
+        <v>224429235</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>7.8006500540000001</v>
+        <v>29.577464790000001</v>
       </c>
       <c r="G58">
-        <v>13.562091499999999</v>
+        <v>28.10457516</v>
       </c>
       <c r="H58">
-        <v>13.636363640000001</v>
+        <v>25.757575760000002</v>
       </c>
       <c r="I58">
-        <v>2.5536911766309098E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>0.21226445521817999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59">
         <v>8</v>
       </c>
@@ -2768,63 +2794,66 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>9083003</v>
+        <v>44680251</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>83317875</v>
+        <v>44683268</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>2.6002166849999999</v>
+        <v>29.360780070000001</v>
       </c>
       <c r="G60">
-        <v>6.3725490200000001</v>
+        <v>29.084967320000001</v>
       </c>
       <c r="H60">
-        <v>6.3636363640000004</v>
+        <v>25.757575760000002</v>
       </c>
       <c r="I60">
-        <v>2.8727627161594898E-3</v>
+        <v>0.24017221007248099</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>36797655</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>190438908</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61">
-        <v>2.8169014080000001</v>
-      </c>
-      <c r="G61">
-        <v>5.7189542480000002</v>
-      </c>
-      <c r="H61">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="I61">
-        <v>3.07535078422952E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="A61" s="1">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>105520479</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>105521175</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1">
+        <v>13.651137589999999</v>
+      </c>
+      <c r="G61" s="1">
+        <v>23.039215689999999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>24.848484849999998</v>
+      </c>
+      <c r="I61" s="4">
+        <v>4.1084565640308702E-6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2854,35 +2883,38 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63">
-        <v>4</v>
-      </c>
-      <c r="B63">
-        <v>40233407</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>40235439</v>
-      </c>
-      <c r="E63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63">
-        <v>17.334777899999999</v>
-      </c>
-      <c r="G63">
-        <v>13.071895420000001</v>
-      </c>
-      <c r="H63">
-        <v>10.3030303</v>
-      </c>
-      <c r="I63">
-        <v>3.2601415774499102E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="A63" s="2">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2">
+        <v>37924183</v>
+      </c>
+      <c r="C63" s="2">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2">
+        <v>37924723</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2">
+        <v>9.1007583969999999</v>
+      </c>
+      <c r="G63" s="2">
+        <v>24.346405229999998</v>
+      </c>
+      <c r="H63" s="2">
+        <v>24.242424239999998</v>
+      </c>
+      <c r="I63" s="4">
+        <v>5.0386384204862801E-12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64">
         <v>7</v>
       </c>
@@ -2911,7 +2943,7 @@
         <v>3.6269739329259101E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2940,7 +2972,7 @@
         <v>3.9854821115900899E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66">
         <v>10</v>
       </c>
@@ -2969,7 +3001,7 @@
         <v>4.3234901721317101E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67">
         <v>6</v>
       </c>
@@ -3000,34 +3032,34 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>130527041</v>
+        <v>69727926</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>130531150</v>
+        <v>69728993</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>16.251354280000001</v>
+        <v>17.659804980000001</v>
       </c>
       <c r="G68">
-        <v>10.784313729999999</v>
+        <v>18.627450979999999</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>22.424242419999999</v>
       </c>
       <c r="I68">
-        <v>7.6061250322537596E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>6.9535739267057098E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69">
         <v>20</v>
       </c>
@@ -3056,7 +3088,7 @@
         <v>8.3804634241666908E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3085,7 +3117,7 @@
         <v>8.4596313267748992E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3114,7 +3146,7 @@
         <v>9.7074167537784199E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3143,7 +3175,7 @@
         <v>1.01659504357239E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73">
         <v>10</v>
       </c>
@@ -3172,7 +3204,7 @@
         <v>1.03368316558901E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="2" customFormat="1">
+    <row r="74" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3207,31 +3239,31 @@
         <v>7</v>
       </c>
       <c r="B75">
-        <v>156594389</v>
+        <v>151312949</v>
       </c>
       <c r="C75">
         <v>7</v>
       </c>
       <c r="D75">
-        <v>156601626</v>
+        <v>151315020</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>5.2004333689999998</v>
+        <v>22.751895990000001</v>
       </c>
       <c r="G75">
-        <v>9.4771241830000008</v>
+        <v>22.385620920000001</v>
       </c>
       <c r="H75">
-        <v>9.3939393940000002</v>
+        <v>22.424242419999999</v>
       </c>
       <c r="I75">
-        <v>1.05239123302696E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>0.963771843260258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76">
         <v>15</v>
       </c>
@@ -3260,7 +3292,7 @@
         <v>1.07549390395638E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77">
         <v>11</v>
       </c>
@@ -3289,7 +3321,7 @@
         <v>1.4217755586449599E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3319,35 +3351,35 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>14</v>
+      <c r="A79">
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>131873693</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
+        <v>197787659</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>131874603</v>
+        <v>197788855</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>17.334777899999999</v>
+        <v>14.84290358</v>
       </c>
       <c r="G79">
-        <v>14.379084969999999</v>
+        <v>16.830065359999999</v>
       </c>
       <c r="H79">
-        <v>11.51515152</v>
+        <v>20.60606061</v>
       </c>
       <c r="I79">
-        <v>1.64121419609136E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="1" customFormat="1">
+        <v>1.9162409253526101E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3382,31 +3414,31 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>197787659</v>
+        <v>239952716</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>197788855</v>
+        <v>239953383</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>14.84290358</v>
+        <v>21.776814730000002</v>
       </c>
       <c r="G81">
-        <v>16.830065359999999</v>
+        <v>20.261437910000001</v>
       </c>
       <c r="H81">
         <v>20.60606061</v>
       </c>
       <c r="I81">
-        <v>1.9162409253526101E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>0.71402757802115302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3437,34 +3469,34 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>128927598</v>
+        <v>127906521</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>128928240</v>
+        <v>127907286</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>10.94257855</v>
+        <v>10.40086674</v>
       </c>
       <c r="G83">
-        <v>14.215686270000001</v>
+        <v>16.339869279999998</v>
       </c>
       <c r="H83">
-        <v>15.75757576</v>
-      </c>
-      <c r="I83">
-        <v>2.8166217729043899E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>19.39393939</v>
+      </c>
+      <c r="I83" s="4">
+        <v>4.0415220888088302E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3494,67 +3526,64 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="2">
-        <v>16</v>
-      </c>
-      <c r="B85" s="2">
-        <v>85155108</v>
-      </c>
-      <c r="C85" s="2">
-        <v>16</v>
-      </c>
-      <c r="D85" s="2">
-        <v>85156196</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="2">
-        <v>59.91332611</v>
-      </c>
-      <c r="G85" s="2">
-        <v>65.032679740000006</v>
-      </c>
-      <c r="H85" s="2">
-        <v>66.666666669999998</v>
-      </c>
-      <c r="I85" s="2">
-        <v>3.5733336323396897E-2</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>20</v>
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>116216764</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>116224311</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>23.726977250000001</v>
+      </c>
+      <c r="G85">
+        <v>22.7124183</v>
+      </c>
+      <c r="H85">
+        <v>18.787878790000001</v>
+      </c>
+      <c r="I85">
+        <v>7.6830298384627099E-2</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B86">
-        <v>102564715</v>
+        <v>183704465</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>102570278</v>
+        <v>183706301</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>7.8006500540000001</v>
+        <v>15.49295775</v>
       </c>
       <c r="G86">
-        <v>10.94771242</v>
+        <v>17.647058820000002</v>
       </c>
       <c r="H86">
-        <v>11.81818182</v>
+        <v>17.272727270000001</v>
       </c>
       <c r="I86">
-        <v>3.6476268603379602E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>0.50280168208825904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87">
         <v>6</v>
       </c>
@@ -3583,7 +3612,7 @@
         <v>4.0313828052728498E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88">
         <v>6</v>
       </c>
@@ -3614,35 +3643,38 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>187495696</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>187497595</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="A89" s="2">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>28932544</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>28934952</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F89">
-        <v>18.63488624</v>
-      </c>
-      <c r="G89">
-        <v>10.13071895</v>
-      </c>
-      <c r="H89">
-        <v>13.636363640000001</v>
-      </c>
-      <c r="I89">
-        <v>4.8294418493239302E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="F89" s="2">
+        <v>5.6338028170000003</v>
+      </c>
+      <c r="G89" s="2">
+        <v>15.522875819999999</v>
+      </c>
+      <c r="H89" s="2">
+        <v>15.75757576</v>
+      </c>
+      <c r="I89" s="4">
+        <v>2.0811610100633701E-8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3671,7 +3703,7 @@
         <v>4.90077284125695E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91">
         <v>19</v>
       </c>
@@ -3700,7 +3732,7 @@
         <v>5.4692793935641297E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92">
         <v>5</v>
       </c>
@@ -3729,7 +3761,7 @@
         <v>5.7642477938185901E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93">
         <v>19</v>
       </c>
@@ -3758,7 +3790,7 @@
         <v>5.8499032011653102E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94">
         <v>15</v>
       </c>
@@ -3789,63 +3821,66 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>128927598</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>128928240</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>10.94257855</v>
+      </c>
+      <c r="G95">
+        <v>14.215686270000001</v>
+      </c>
+      <c r="H95">
+        <v>15.75757576</v>
+      </c>
+      <c r="I95">
+        <v>2.8166217729043899E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B95">
-        <v>66703616</v>
-      </c>
-      <c r="C95">
+      <c r="B96" s="1">
+        <v>29251032</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D95">
-        <v>66704992</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95">
-        <v>9.2091007579999999</v>
-      </c>
-      <c r="G95">
-        <v>6.2091503269999997</v>
-      </c>
-      <c r="H95">
-        <v>5.7575757579999998</v>
-      </c>
-      <c r="I95">
-        <v>6.6601180869074794E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96">
-        <v>16</v>
-      </c>
-      <c r="B96">
-        <v>69727926</v>
-      </c>
-      <c r="C96">
-        <v>16</v>
-      </c>
-      <c r="D96">
-        <v>69728993</v>
-      </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96">
-        <v>17.659804980000001</v>
-      </c>
-      <c r="G96">
-        <v>18.627450979999999</v>
-      </c>
-      <c r="H96">
-        <v>22.424242419999999</v>
-      </c>
-      <c r="I96">
-        <v>6.9535739267057098E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="D96" s="1">
+        <v>29252080</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1">
+        <v>5.8504875409999997</v>
+      </c>
+      <c r="G96" s="1">
+        <v>15.8496732</v>
+      </c>
+      <c r="H96" s="1">
+        <v>15.454545449999999</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1.23423135951775E-7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97">
         <v>7</v>
       </c>
@@ -3874,65 +3909,65 @@
         <v>7.48266473906187E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:9">
       <c r="A98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>116216764</v>
+        <v>102084258</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>116224311</v>
+        <v>102084759</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>23.726977250000001</v>
+        <v>7.8006500540000001</v>
       </c>
       <c r="G98">
-        <v>22.7124183</v>
+        <v>13.39869281</v>
       </c>
       <c r="H98">
-        <v>18.787878790000001</v>
+        <v>15.15151515</v>
       </c>
       <c r="I98">
-        <v>7.6830298384627099E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>1.7140446652377499E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>80013716</v>
+        <v>117862980</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>80016128</v>
+        <v>117863355</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F99">
-        <v>3.3586132179999999</v>
+        <v>5.9588299019999997</v>
       </c>
       <c r="G99">
-        <v>3.9215686270000001</v>
+        <v>12.09150327</v>
       </c>
       <c r="H99">
-        <v>5.7575757579999998</v>
-      </c>
-      <c r="I99">
-        <v>8.0626200295085201E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>14.545454550000001</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1.9622153330913801E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3961,7 +3996,7 @@
         <v>8.6979574747402505E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3990,7 +4025,7 @@
         <v>8.6979574747402505E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102">
         <v>7</v>
       </c>
@@ -4019,7 +4054,7 @@
         <v>9.0803018709752797E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -4048,36 +4083,36 @@
         <v>9.5907980905854895E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:9">
       <c r="A104">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B104">
-        <v>46896695</v>
+        <v>172455538</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>46915969</v>
+        <v>172455915</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>5.417118093</v>
+        <v>12.676056340000001</v>
       </c>
       <c r="G104">
-        <v>6.2091503269999997</v>
+        <v>12.25490196</v>
       </c>
       <c r="H104">
-        <v>8.1818181820000007</v>
+        <v>13.93939394</v>
       </c>
       <c r="I104">
-        <v>9.6646385232179596E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>0.62399598101917497</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105">
         <v>4</v>
       </c>
@@ -4106,39 +4141,36 @@
         <v>9.9952306067760899E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="2">
-        <v>7</v>
-      </c>
-      <c r="B106" s="2">
-        <v>70961199</v>
-      </c>
-      <c r="C106" s="2">
-        <v>7</v>
-      </c>
-      <c r="D106" s="2">
-        <v>70973894</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="2">
-        <v>52.112676059999998</v>
-      </c>
-      <c r="G106" s="2">
-        <v>57.679738559999997</v>
-      </c>
-      <c r="H106" s="2">
-        <v>57.575757580000001</v>
-      </c>
-      <c r="I106" s="2">
-        <v>0.100270514353938</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>77990109</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>77994064</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>14.517876490000001</v>
+      </c>
+      <c r="G106">
+        <v>15.686274510000001</v>
+      </c>
+      <c r="H106">
+        <v>13.93939394</v>
+      </c>
+      <c r="I106">
+        <v>0.86837916333655296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4167,7 +4199,7 @@
         <v>0.10194883091622101</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108">
         <v>9</v>
       </c>
@@ -4196,7 +4228,7 @@
         <v>0.104219433482285</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4225,36 +4257,36 @@
         <v>0.10564014722809199</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110">
-        <v>66986546</v>
+        <v>80328939</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>66986952</v>
+        <v>80329427</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>4.9837486459999996</v>
+        <v>7.8006500540000001</v>
       </c>
       <c r="G110">
-        <v>5.8823529409999997</v>
+        <v>13.562091499999999</v>
       </c>
       <c r="H110">
-        <v>7.575757576</v>
+        <v>13.636363640000001</v>
       </c>
       <c r="I110">
-        <v>0.10756081313337799</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>2.5536911766309098E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111">
         <v>13</v>
       </c>
@@ -4283,7 +4315,7 @@
         <v>0.107644046443723</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112">
         <v>13</v>
       </c>
@@ -4312,7 +4344,7 @@
         <v>0.123678782376614</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113">
         <v>2</v>
       </c>
@@ -4341,7 +4373,7 @@
         <v>0.12527808763329701</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114">
         <v>20</v>
       </c>
@@ -4375,31 +4407,31 @@
         <v>1</v>
       </c>
       <c r="B115">
-        <v>175231433</v>
+        <v>187495696</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>175232801</v>
+        <v>187497595</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
       </c>
       <c r="F115">
-        <v>8.0173347780000004</v>
+        <v>18.63488624</v>
       </c>
       <c r="G115">
         <v>10.13071895</v>
       </c>
       <c r="H115">
-        <v>10.90909091</v>
+        <v>13.636363640000001</v>
       </c>
       <c r="I115">
-        <v>0.13890100718165299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>4.8294418493239302E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116">
         <v>9</v>
       </c>
@@ -4428,7 +4460,7 @@
         <v>0.13914217557308201</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4457,7 +4489,7 @@
         <v>0.14126792311942199</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118">
         <v>22</v>
       </c>
@@ -4488,34 +4520,34 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B119">
-        <v>85155130</v>
+        <v>102564715</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D119">
-        <v>85156196</v>
+        <v>102570278</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F119">
-        <v>9.1007583969999999</v>
+        <v>7.8006500540000001</v>
       </c>
       <c r="G119">
-        <v>6.699346405</v>
+        <v>10.94771242</v>
       </c>
       <c r="H119">
-        <v>6.3636363640000004</v>
+        <v>11.81818182</v>
       </c>
       <c r="I119">
-        <v>0.154328154159802</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>3.6476268603379602E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120">
         <v>13</v>
       </c>
@@ -4545,35 +4577,35 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121">
-        <v>5</v>
+      <c r="A121" t="s">
+        <v>14</v>
       </c>
       <c r="B121">
-        <v>31190135</v>
-      </c>
-      <c r="C121">
-        <v>5</v>
+        <v>131873693</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
       </c>
       <c r="D121">
-        <v>31191075</v>
+        <v>131874603</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>6.3921993500000003</v>
+        <v>17.334777899999999</v>
       </c>
       <c r="G121">
-        <v>10.29411765</v>
+        <v>14.379084969999999</v>
       </c>
       <c r="H121">
-        <v>8.7878787880000004</v>
+        <v>11.51515152</v>
       </c>
       <c r="I121">
-        <v>0.181483571885938</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>1.64121419609136E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122">
         <v>7</v>
       </c>
@@ -4603,32 +4635,32 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>14</v>
+      <c r="A123">
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>70909425</v>
-      </c>
-      <c r="C123" t="s">
-        <v>14</v>
+        <v>175231433</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>70920177</v>
+        <v>175232801</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F123">
-        <v>3.5752979410000001</v>
+        <v>8.0173347780000004</v>
       </c>
       <c r="G123">
-        <v>6.2091503269999997</v>
+        <v>10.13071895</v>
       </c>
       <c r="H123">
-        <v>5.4545454549999999</v>
+        <v>10.90909091</v>
       </c>
       <c r="I123">
-        <v>0.186668924973451</v>
+        <v>0.13890100718165299</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4660,7 +4692,7 @@
         <v>0.18737877855416299</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125">
         <v>13</v>
       </c>
@@ -4689,7 +4721,7 @@
         <v>0.19143200171460001</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126">
         <v>15</v>
       </c>
@@ -4718,7 +4750,7 @@
         <v>0.197181675715834</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127">
         <v>19</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>0.197181675715834</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128">
         <v>17</v>
       </c>
@@ -4778,34 +4810,34 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>224428264</v>
+        <v>40233407</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>224429235</v>
+        <v>40235439</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129">
-        <v>29.577464790000001</v>
+        <v>17.334777899999999</v>
       </c>
       <c r="G129">
-        <v>28.10457516</v>
+        <v>13.071895420000001</v>
       </c>
       <c r="H129">
-        <v>25.757575760000002</v>
+        <v>10.3030303</v>
       </c>
       <c r="I129">
-        <v>0.21226445521817999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>3.2601415774499102E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130">
         <v>12</v>
       </c>
@@ -4836,34 +4868,34 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B131">
-        <v>55676540</v>
+        <v>167193921</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>55690280</v>
+        <v>167194355</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>6.2838569880000001</v>
+        <v>11.917659799999999</v>
       </c>
       <c r="G131">
-        <v>8.1699346409999993</v>
+        <v>8.0065359479999998</v>
       </c>
       <c r="H131">
-        <v>8.4848484850000006</v>
+        <v>10.3030303</v>
       </c>
       <c r="I131">
-        <v>0.218534939962861</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>0.49096243795416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4892,7 +4924,7 @@
         <v>0.22110765430424101</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133">
         <v>18</v>
       </c>
@@ -4921,7 +4953,7 @@
         <v>0.235781738774546</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134">
         <v>2</v>
       </c>
@@ -4952,34 +4984,34 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B135">
-        <v>44680251</v>
+        <v>130527041</v>
       </c>
       <c r="C135">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D135">
-        <v>44683268</v>
+        <v>130531150</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="F135">
-        <v>29.360780070000001</v>
+        <v>16.251354280000001</v>
       </c>
       <c r="G135">
-        <v>29.084967320000001</v>
+        <v>10.784313729999999</v>
       </c>
       <c r="H135">
-        <v>25.757575760000002</v>
+        <v>10</v>
       </c>
       <c r="I135">
-        <v>0.24017221007248099</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>7.6061250322537596E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136">
         <v>9</v>
       </c>
@@ -5010,34 +5042,34 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B137">
-        <v>26648364</v>
+        <v>46648665</v>
       </c>
       <c r="C137">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>26649407</v>
+        <v>62759566</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137">
-        <v>38.028169009999999</v>
+        <v>4.0086673890000002</v>
       </c>
       <c r="G137">
-        <v>39.542483660000002</v>
+        <v>8.8235294119999992</v>
       </c>
       <c r="H137">
-        <v>41.81818182</v>
+        <v>9.6969696970000001</v>
       </c>
       <c r="I137">
-        <v>0.25195326922029199</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="2" customFormat="1">
+        <v>1.78733975105176E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A138">
         <v>9</v>
       </c>
@@ -5067,7 +5099,7 @@
       </c>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139">
         <v>11</v>
       </c>
@@ -5097,38 +5129,35 @@
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="3">
-        <v>1</v>
-      </c>
-      <c r="B140" s="3">
-        <v>207119002</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1</v>
-      </c>
-      <c r="D140" s="3">
-        <v>207119851</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="3">
-        <v>45.395449620000001</v>
-      </c>
-      <c r="G140" s="3">
-        <v>52.777777780000001</v>
-      </c>
-      <c r="H140" s="3">
-        <v>49.090909089999997</v>
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>55007431</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>55013437</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>10.075839650000001</v>
+      </c>
+      <c r="G140">
+        <v>7.6797385619999998</v>
+      </c>
+      <c r="H140">
+        <v>9.6969696970000001</v>
       </c>
       <c r="I140">
-        <v>0.27523629677450101</v>
-      </c>
-      <c r="J140" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>0.92820678916479105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141">
         <v>11</v>
       </c>
@@ -5157,7 +5186,7 @@
         <v>0.27682755869994802</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142">
         <v>10</v>
       </c>
@@ -5186,7 +5215,7 @@
         <v>0.27706209820286498</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143">
         <v>4</v>
       </c>
@@ -5215,7 +5244,7 @@
         <v>0.28594200574599399</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144">
         <v>2</v>
       </c>
@@ -5244,7 +5273,7 @@
         <v>0.288083842572948</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145">
         <v>2</v>
       </c>
@@ -5273,7 +5302,7 @@
         <v>0.30050367528090099</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146">
         <v>2</v>
       </c>
@@ -5302,7 +5331,7 @@
         <v>0.31929369164263799</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147">
         <v>15</v>
       </c>
@@ -5333,67 +5362,67 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>2</v>
       </c>
-      <c r="B148">
-        <v>72213038</v>
-      </c>
-      <c r="C148">
+      <c r="B148" s="1">
+        <v>131129003</v>
+      </c>
+      <c r="C148" s="1">
         <v>2</v>
       </c>
-      <c r="D148">
-        <v>72214235</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148">
-        <v>5.8504875409999997</v>
-      </c>
-      <c r="G148">
-        <v>9.3137254899999995</v>
-      </c>
-      <c r="H148">
-        <v>7.575757576</v>
-      </c>
-      <c r="I148">
-        <v>0.32966519163155</v>
+      <c r="D148" s="1">
+        <v>131129733</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2.8169014080000001</v>
+      </c>
+      <c r="G148" s="1">
+        <v>10.13071895</v>
+      </c>
+      <c r="H148" s="1">
+        <v>9.3939393940000002</v>
+      </c>
+      <c r="I148" s="5">
+        <v>1.86818689621895E-6</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="2">
-        <v>4</v>
-      </c>
-      <c r="B149" s="2">
-        <v>87926012</v>
-      </c>
-      <c r="C149" s="2">
-        <v>4</v>
-      </c>
-      <c r="D149" s="2">
-        <v>87937548</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="2">
-        <v>60.238353199999999</v>
-      </c>
-      <c r="G149" s="2">
-        <v>58.660130719999998</v>
-      </c>
-      <c r="H149" s="2">
-        <v>56.969696970000001</v>
-      </c>
-      <c r="I149" s="2">
-        <v>0.33086743036184402</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>156594389</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>156601626</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149">
+        <v>5.2004333689999998</v>
+      </c>
+      <c r="G149">
+        <v>9.4771241830000008</v>
+      </c>
+      <c r="H149">
+        <v>9.3939393940000002</v>
+      </c>
+      <c r="I149">
+        <v>1.05239123302696E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150">
         <v>22</v>
       </c>
@@ -5422,7 +5451,7 @@
         <v>0.34686545985196399</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151">
         <v>7</v>
       </c>
@@ -5451,7 +5480,7 @@
         <v>0.348315036902834</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152">
         <v>12</v>
       </c>
@@ -5480,7 +5509,7 @@
         <v>0.349466876318136</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153">
         <v>10</v>
       </c>
@@ -5509,7 +5538,7 @@
         <v>0.36206013026537398</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154">
         <v>4</v>
       </c>
@@ -5538,7 +5567,7 @@
         <v>0.36705515773686098</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155">
         <v>4</v>
       </c>
@@ -5567,7 +5596,7 @@
         <v>0.36743708229508598</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5598,34 +5627,34 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B157">
-        <v>48871900</v>
+        <v>170170464</v>
       </c>
       <c r="C157">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D157">
-        <v>48872325</v>
+        <v>170171752</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
       </c>
       <c r="F157">
-        <v>7.692307692</v>
+        <v>8.3423618630000007</v>
       </c>
       <c r="G157">
-        <v>7.5163398690000003</v>
+        <v>9.6405228760000004</v>
       </c>
       <c r="H157">
-        <v>6.0606060609999997</v>
+        <v>9.3939393940000002</v>
       </c>
       <c r="I157">
-        <v>0.39160523617558701</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>0.63840497574747501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158">
         <v>21</v>
       </c>
@@ -5656,34 +5685,34 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B159">
-        <v>57497899</v>
+        <v>43793603</v>
       </c>
       <c r="C159">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>57498224</v>
+        <v>43794500</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
       <c r="F159">
-        <v>6.6088840739999997</v>
+        <v>7.5839653299999998</v>
       </c>
       <c r="G159">
-        <v>6.3725490200000001</v>
+        <v>8.8235294119999992</v>
       </c>
       <c r="H159">
-        <v>5.151515152</v>
+        <v>9.0909090910000003</v>
       </c>
       <c r="I159">
-        <v>0.41925125629729898</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>0.45406497058337097</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160">
         <v>3</v>
       </c>
@@ -5714,34 +5743,34 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B161">
-        <v>43793603</v>
+        <v>31190135</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D161">
-        <v>43794500</v>
+        <v>31191075</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
       <c r="F161">
-        <v>7.5839653299999998</v>
+        <v>6.3921993500000003</v>
       </c>
       <c r="G161">
-        <v>8.8235294119999992</v>
+        <v>10.29411765</v>
       </c>
       <c r="H161">
-        <v>9.0909090910000003</v>
+        <v>8.7878787880000004</v>
       </c>
       <c r="I161">
-        <v>0.45406497058337097</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>0.181483571885938</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162">
         <v>7</v>
       </c>
@@ -5772,34 +5801,34 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B163">
-        <v>44677206</v>
+        <v>124294179</v>
       </c>
       <c r="C163">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>44683574</v>
+        <v>124295663</v>
       </c>
       <c r="E163" t="s">
         <v>13</v>
       </c>
       <c r="F163">
-        <v>9.4257854820000002</v>
+        <v>7.3672806069999996</v>
       </c>
       <c r="G163">
-        <v>8.8235294119999992</v>
+        <v>12.418300650000001</v>
       </c>
       <c r="H163">
-        <v>7.8787878789999999</v>
+        <v>8.7878787880000004</v>
       </c>
       <c r="I163">
-        <v>0.46534043185704499</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>0.47845910146429999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164">
         <v>17</v>
       </c>
@@ -5828,7 +5857,7 @@
         <v>0.46809587957917098</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165">
         <v>16</v>
       </c>
@@ -5859,34 +5888,34 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B166">
-        <v>124294179</v>
+        <v>55676540</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>124295663</v>
+        <v>55690280</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F166">
-        <v>7.3672806069999996</v>
+        <v>6.2838569880000001</v>
       </c>
       <c r="G166">
-        <v>12.418300650000001</v>
+        <v>8.1699346409999993</v>
       </c>
       <c r="H166">
-        <v>8.7878787880000004</v>
+        <v>8.4848484850000006</v>
       </c>
       <c r="I166">
-        <v>0.47845910146429999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>0.218534939962861</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167">
         <v>2</v>
       </c>
@@ -5916,67 +5945,64 @@
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="2">
-        <v>2</v>
-      </c>
-      <c r="B168" s="2">
-        <v>95544969</v>
-      </c>
-      <c r="C168" s="2">
-        <v>2</v>
-      </c>
-      <c r="D168" s="2">
-        <v>95545592</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="2">
-        <v>53.629469120000003</v>
-      </c>
-      <c r="G168" s="2">
-        <v>56.20915033</v>
-      </c>
-      <c r="H168" s="2">
-        <v>56.060606059999998</v>
-      </c>
-      <c r="I168" s="2">
-        <v>0.48611733588164702</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>20</v>
+      <c r="A168">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>46896695</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>46915969</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168">
+        <v>5.417118093</v>
+      </c>
+      <c r="G168">
+        <v>6.2091503269999997</v>
+      </c>
+      <c r="H168">
+        <v>8.1818181820000007</v>
+      </c>
+      <c r="I168">
+        <v>9.6646385232179596E-2</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B169">
-        <v>167193921</v>
+        <v>44677206</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D169">
-        <v>167194355</v>
+        <v>44683574</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F169">
-        <v>11.917659799999999</v>
+        <v>9.4257854820000002</v>
       </c>
       <c r="G169">
-        <v>8.0065359479999998</v>
+        <v>8.8235294119999992</v>
       </c>
       <c r="H169">
-        <v>10.3030303</v>
+        <v>7.8787878789999999</v>
       </c>
       <c r="I169">
-        <v>0.49096243795416</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>0.46534043185704499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170">
         <v>11</v>
       </c>
@@ -6005,7 +6031,7 @@
         <v>0.49106320360609501</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171">
         <v>10</v>
       </c>
@@ -6034,7 +6060,7 @@
         <v>0.49962420836204002</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172">
         <v>8</v>
       </c>
@@ -6065,34 +6091,34 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173">
-        <v>183704465</v>
+        <v>66986546</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>183706301</v>
+        <v>66986952</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
       </c>
       <c r="F173">
-        <v>15.49295775</v>
+        <v>4.9837486459999996</v>
       </c>
       <c r="G173">
-        <v>17.647058820000002</v>
+        <v>5.8823529409999997</v>
       </c>
       <c r="H173">
-        <v>17.272727270000001</v>
+        <v>7.575757576</v>
       </c>
       <c r="I173">
-        <v>0.50280168208825904</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+        <v>0.10756081313337799</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174">
         <v>15</v>
       </c>
@@ -6121,7 +6147,7 @@
         <v>0.51398063412645301</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="1" customFormat="1">
+    <row r="175" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A175">
         <v>13</v>
       </c>
@@ -6151,7 +6177,7 @@
       </c>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176">
         <v>2</v>
       </c>
@@ -6180,7 +6206,7 @@
         <v>0.54214751037856901</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177">
         <v>15</v>
       </c>
@@ -6209,7 +6235,7 @@
         <v>0.54214751037856901</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178">
         <v>12</v>
       </c>
@@ -6238,7 +6264,7 @@
         <v>0.54315413892735298</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179">
         <v>19</v>
       </c>
@@ -6268,7 +6294,7 @@
       </c>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180">
         <v>7</v>
       </c>
@@ -6298,7 +6324,7 @@
       </c>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181">
         <v>14</v>
       </c>
@@ -6329,63 +6355,63 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B182">
-        <v>172455538</v>
+        <v>72213038</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>172455915</v>
+        <v>72214235</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
       </c>
       <c r="F182">
-        <v>12.676056340000001</v>
+        <v>5.8504875409999997</v>
       </c>
       <c r="G182">
-        <v>12.25490196</v>
+        <v>9.3137254899999995</v>
       </c>
       <c r="H182">
-        <v>13.93939394</v>
+        <v>7.575757576</v>
       </c>
       <c r="I182">
-        <v>0.62399598101917497</v>
+        <v>0.32966519163155</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B183">
-        <v>170170464</v>
+        <v>187497344</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>170171752</v>
+        <v>187497598</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
       </c>
       <c r="F183">
-        <v>8.3423618630000007</v>
+        <v>8.0173347780000004</v>
       </c>
       <c r="G183">
-        <v>9.6405228760000004</v>
+        <v>10.45751634</v>
       </c>
       <c r="H183">
-        <v>9.3939393940000002</v>
+        <v>7.575757576</v>
       </c>
       <c r="I183">
-        <v>0.63840497574747501</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+        <v>0.89155233097819797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184">
         <v>3</v>
       </c>
@@ -6414,7 +6440,7 @@
         <v>0.65486740751944394</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185">
         <v>7</v>
       </c>
@@ -6443,7 +6469,7 @@
         <v>0.65881116813379503</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186">
         <v>10</v>
       </c>
@@ -6472,7 +6498,7 @@
         <v>0.66272986105156695</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187">
         <v>2</v>
       </c>
@@ -6503,66 +6529,63 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B188">
-        <v>148174677</v>
+        <v>36797655</v>
       </c>
       <c r="C188">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>148175216</v>
+        <v>190438908</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
       </c>
       <c r="F188">
-        <v>41.170097509999998</v>
+        <v>2.8169014080000001</v>
       </c>
       <c r="G188">
-        <v>38.888888889999997</v>
+        <v>5.7189542480000002</v>
       </c>
       <c r="H188">
-        <v>42.727272730000003</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="I188">
-        <v>0.66898987082371297</v>
+        <v>3.07535078422952E-3</v>
       </c>
     </row>
     <row r="189" spans="1:10">
-      <c r="A189" s="3">
-        <v>21</v>
-      </c>
-      <c r="B189" s="3">
-        <v>26001844</v>
-      </c>
-      <c r="C189" s="3">
-        <v>21</v>
-      </c>
-      <c r="D189" s="3">
-        <v>26002386</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="3">
-        <v>85.265438790000005</v>
-      </c>
-      <c r="G189" s="3">
-        <v>85.457516339999998</v>
-      </c>
-      <c r="H189" s="3">
-        <v>86.363636360000001</v>
+      <c r="A189">
+        <v>11</v>
+      </c>
+      <c r="B189">
+        <v>9083003</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>83317875</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189">
+        <v>2.6002166849999999</v>
+      </c>
+      <c r="G189">
+        <v>6.3725490200000001</v>
+      </c>
+      <c r="H189">
+        <v>6.3636363640000004</v>
       </c>
       <c r="I189">
-        <v>0.69222932588199904</v>
-      </c>
-      <c r="J189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>2.8727627161594898E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190">
         <v>4</v>
       </c>
@@ -6591,7 +6614,7 @@
         <v>0.70092048221638803</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191">
         <v>5</v>
       </c>
@@ -6621,7 +6644,7 @@
       </c>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192">
         <v>3</v>
       </c>
@@ -6652,31 +6675,31 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B193">
-        <v>239952716</v>
+        <v>85155130</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D193">
-        <v>239953383</v>
+        <v>85156196</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F193">
-        <v>21.776814730000002</v>
+        <v>9.1007583969999999</v>
       </c>
       <c r="G193">
-        <v>20.261437910000001</v>
+        <v>6.699346405</v>
       </c>
       <c r="H193">
-        <v>20.60606061</v>
+        <v>6.3636363640000004</v>
       </c>
       <c r="I193">
-        <v>0.71402757802115302</v>
+        <v>0.154328154159802</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6709,38 +6732,36 @@
       </c>
     </row>
     <row r="195" spans="1:10" s="2" customFormat="1">
-      <c r="A195" s="3">
-        <v>7</v>
-      </c>
-      <c r="B195" s="3">
-        <v>40839777</v>
-      </c>
-      <c r="C195" s="3">
-        <v>7</v>
-      </c>
-      <c r="D195" s="3">
-        <v>40840871</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="3">
-        <v>47.670639219999998</v>
-      </c>
-      <c r="G195" s="3">
-        <v>41.503267970000003</v>
-      </c>
-      <c r="H195" s="3">
-        <v>46.363636360000001</v>
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195">
+        <v>114922388</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>114925736</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195">
+        <v>6.2838569880000001</v>
+      </c>
+      <c r="G195">
+        <v>6.3725490200000001</v>
+      </c>
+      <c r="H195">
+        <v>6.3636363640000004</v>
       </c>
       <c r="I195">
-        <v>0.73091314090818005</v>
-      </c>
-      <c r="J195" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="J195"/>
+    </row>
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196">
         <v>11</v>
       </c>
@@ -6770,7 +6791,7 @@
       </c>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" s="2" customFormat="1">
+    <row r="197" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A197">
         <v>2</v>
       </c>
@@ -6800,7 +6821,7 @@
       </c>
       <c r="J197"/>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198">
         <v>9</v>
       </c>
@@ -6830,7 +6851,7 @@
       </c>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6859,7 +6880,7 @@
         <v>0.78988810725944902</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200">
         <v>3</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>0.80541923966561701</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6917,7 +6938,7 @@
         <v>0.80924951756652796</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202">
         <v>9</v>
       </c>
@@ -6946,7 +6967,7 @@
         <v>0.82116217535966596</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="2" customFormat="1">
+    <row r="203" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A203">
         <v>10</v>
       </c>
@@ -6976,7 +6997,7 @@
       </c>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204">
         <v>7</v>
       </c>
@@ -7005,7 +7026,7 @@
         <v>0.83715355312291495</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205">
         <v>3</v>
       </c>
@@ -7034,7 +7055,7 @@
         <v>0.84338045512954496</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206">
         <v>3</v>
       </c>
@@ -7064,7 +7085,7 @@
       </c>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207">
         <v>6</v>
       </c>
@@ -7093,7 +7114,7 @@
         <v>0.85005003102284205</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208">
         <v>20</v>
       </c>
@@ -7124,34 +7145,34 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B209">
-        <v>71139014</v>
+        <v>48871900</v>
       </c>
       <c r="C209">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D209">
-        <v>71139975</v>
+        <v>48872325</v>
       </c>
       <c r="E209" t="s">
         <v>11</v>
       </c>
       <c r="F209">
-        <v>30.76923077</v>
+        <v>7.692307692</v>
       </c>
       <c r="G209">
-        <v>30.718954249999999</v>
+        <v>7.5163398690000003</v>
       </c>
       <c r="H209">
-        <v>31.51515152</v>
+        <v>6.0606060609999997</v>
       </c>
       <c r="I209">
-        <v>0.85544443379471002</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" s="2" customFormat="1">
+        <v>0.39160523617558701</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="2" customFormat="1" hidden="1">
       <c r="A210">
         <v>3</v>
       </c>
@@ -7183,63 +7204,63 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B211">
-        <v>77990109</v>
+        <v>66703616</v>
       </c>
       <c r="C211">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D211">
-        <v>77994064</v>
+        <v>66704992</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
       </c>
       <c r="F211">
-        <v>14.517876490000001</v>
+        <v>9.2091007579999999</v>
       </c>
       <c r="G211">
-        <v>15.686274510000001</v>
+        <v>6.2091503269999997</v>
       </c>
       <c r="H211">
-        <v>13.93939394</v>
+        <v>5.7575757579999998</v>
       </c>
       <c r="I211">
-        <v>0.86837916333655296</v>
+        <v>6.6601180869074794E-2</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B212">
-        <v>187497344</v>
+        <v>80013716</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>187497598</v>
+        <v>80016128</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F212">
-        <v>8.0173347780000004</v>
+        <v>3.3586132179999999</v>
       </c>
       <c r="G212">
-        <v>10.45751634</v>
+        <v>3.9215686270000001</v>
       </c>
       <c r="H212">
-        <v>7.575757576</v>
+        <v>5.7575757579999998</v>
       </c>
       <c r="I212">
-        <v>0.89155233097819797</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>8.0626200295085201E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213">
         <v>7</v>
       </c>
@@ -7268,7 +7289,7 @@
         <v>0.91006423027597705</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214">
         <v>16</v>
       </c>
@@ -7299,34 +7320,35 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B215">
-        <v>55007431</v>
+        <v>62277793</v>
       </c>
       <c r="C215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215">
-        <v>55013437</v>
+        <v>125589068</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
       </c>
       <c r="F215">
-        <v>10.075839650000001</v>
+        <v>1.516793066</v>
       </c>
       <c r="G215">
-        <v>7.6797385619999998</v>
+        <v>3.4313725490000002</v>
       </c>
       <c r="H215">
-        <v>9.6969696970000001</v>
+        <v>5.4545454549999999</v>
       </c>
       <c r="I215">
-        <v>0.92820678916479105</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>2.25579506288884E-4</v>
+      </c>
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216">
         <v>5</v>
       </c>
@@ -7355,7 +7377,7 @@
         <v>0.93404133896574104</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217">
         <v>19</v>
       </c>
@@ -7384,7 +7406,7 @@
         <v>0.94555089941342396</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218">
         <v>9</v>
       </c>
@@ -7414,35 +7436,35 @@
       </c>
     </row>
     <row r="219" spans="1:10">
-      <c r="A219">
-        <v>7</v>
+      <c r="A219" t="s">
+        <v>14</v>
       </c>
       <c r="B219">
-        <v>151312949</v>
-      </c>
-      <c r="C219">
-        <v>7</v>
+        <v>70909425</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
       </c>
       <c r="D219">
-        <v>151315020</v>
+        <v>70920177</v>
       </c>
       <c r="E219" t="s">
         <v>11</v>
       </c>
       <c r="F219">
-        <v>22.751895990000001</v>
+        <v>3.5752979410000001</v>
       </c>
       <c r="G219">
-        <v>22.385620920000001</v>
+        <v>6.2091503269999997</v>
       </c>
       <c r="H219">
-        <v>22.424242419999999</v>
+        <v>5.4545454549999999</v>
       </c>
       <c r="I219">
-        <v>0.963771843260258</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+        <v>0.186668924973451</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220">
         <v>15</v>
       </c>
@@ -7471,7 +7493,7 @@
         <v>0.96971900813182199</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221">
         <v>14</v>
       </c>
@@ -7500,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="1" customFormat="1">
+    <row r="222" spans="1:10" s="1" customFormat="1" hidden="1">
       <c r="A222">
         <v>11</v>
       </c>
@@ -7530,7 +7552,7 @@
       </c>
       <c r="J222"/>
     </row>
-    <row r="223" spans="1:10" s="3" customFormat="1">
+    <row r="223" spans="1:10" s="3" customFormat="1" hidden="1">
       <c r="A223">
         <v>15</v>
       </c>
@@ -7560,7 +7582,7 @@
       </c>
       <c r="J223"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224">
         <v>5</v>
       </c>
@@ -7589,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" s="3" customFormat="1">
+    <row r="225" spans="1:10" s="3" customFormat="1" hidden="1">
       <c r="A225">
         <v>16</v>
       </c>
@@ -7619,7 +7641,7 @@
       </c>
       <c r="J225"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226">
         <v>2</v>
       </c>
@@ -7650,34 +7672,34 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B227">
-        <v>114922388</v>
+        <v>57497899</v>
       </c>
       <c r="C227">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D227">
-        <v>114925736</v>
+        <v>57498224</v>
       </c>
       <c r="E227" t="s">
         <v>11</v>
       </c>
       <c r="F227">
-        <v>6.2838569880000001</v>
+        <v>6.6088840739999997</v>
       </c>
       <c r="G227">
         <v>6.3725490200000001</v>
       </c>
       <c r="H227">
-        <v>6.3636363640000004</v>
+        <v>5.151515152</v>
       </c>
       <c r="I227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>0.41925125629729898</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228">
         <v>8</v>
       </c>
@@ -7706,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229">
         <v>16</v>
       </c>
@@ -7735,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230">
         <v>9</v>
       </c>
@@ -7765,7 +7787,7 @@
       </c>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231">
         <v>13</v>
       </c>
@@ -7794,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" s="3" customFormat="1">
+    <row r="232" spans="1:10" s="3" customFormat="1" hidden="1">
       <c r="A232">
         <v>4</v>
       </c>
@@ -7825,6 +7847,18 @@
       <c r="J232" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J232" xr:uid="{74898C76-B0E3-4E86-AFF5-90ED2C3DC24D}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="INV-hh"/>
+        <filter val="INV-tt"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A5:J227">
+      <sortCondition descending="1" ref="H2:H232"/>
+      <sortCondition ref="I2:I232"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:J232">
     <sortCondition ref="I2:I232"/>
   </sortState>
